--- a/Team-Data/2012-13/1-22-2012-13.xlsx
+++ b/Team-Data/2012-13/1-22-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -762,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>48.9</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
         <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O3" t="n">
         <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="S3" t="n">
         <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
         <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.1</v>
@@ -914,19 +981,19 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -971,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -989,19 +1056,19 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>23</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>7</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1132,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
         <v>9</v>
@@ -1162,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1171,13 +1238,13 @@
         <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1329,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>14</v>
@@ -1338,7 +1405,7 @@
         <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1487,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>23</v>
@@ -1520,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1535,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.256</v>
+        <v>0.238</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,40 +1661,40 @@
         <v>35.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P7" t="n">
         <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="R7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S7" t="n">
         <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V7" t="n">
         <v>14.7</v>
@@ -1636,7 +1703,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y7" t="n">
         <v>7</v>
@@ -1645,16 +1712,16 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB7" t="n">
         <v>95</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.3</v>
+        <v>-5.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1663,13 +1730,13 @@
         <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1693,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1854,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1863,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1881,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -2069,13 +2136,13 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
         <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K10" t="n">
         <v>0.445</v>
@@ -2149,34 +2216,34 @@
         <v>6.4</v>
       </c>
       <c r="M10" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O10" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.708</v>
+        <v>0.709</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T10" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W10" t="n">
         <v>6.3</v>
@@ -2185,40 +2252,40 @@
         <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
         <v>22</v>
       </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2248,13 +2315,13 @@
         <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
@@ -2269,13 +2336,13 @@
         <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2424,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2606,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2758,13 +2825,13 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2782,7 +2849,7 @@
         <v>22</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2806,7 +2873,7 @@
         <v>27</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.744</v>
+        <v>0.762</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,46 +2935,46 @@
         <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q14" t="n">
         <v>0.712</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S14" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="X14" t="n">
         <v>6.3</v>
@@ -2916,28 +2983,28 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE14" t="n">
         <v>2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2979,10 +3046,10 @@
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,16 +3061,16 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>7</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3125,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>18</v>
@@ -3161,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3313,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.55</v>
+        <v>0.538</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J18" t="n">
-        <v>86</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L18" t="n">
         <v>6.1</v>
@@ -3608,25 +3675,25 @@
         <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P18" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R18" t="n">
         <v>12.7</v>
       </c>
       <c r="S18" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T18" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U18" t="n">
         <v>21.9</v>
@@ -3644,22 +3711,22 @@
         <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,28 +3753,28 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>10</v>
@@ -3719,16 +3786,16 @@
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3889,10 +3956,10 @@
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4087,22 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4235,16 +4302,16 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>0.786</v>
+        <v>0.78</v>
       </c>
       <c r="H22" t="n">
         <v>48.6</v>
@@ -4324,25 +4391,25 @@
         <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.393</v>
+        <v>0.388</v>
       </c>
       <c r="O22" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P22" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="Q22" t="n">
         <v>0.838</v>
@@ -4351,10 +4418,10 @@
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
         <v>21.6</v>
@@ -4369,25 +4436,25 @@
         <v>7</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4408,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4429,31 +4496,31 @@
         <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>0.341</v>
+        <v>0.35</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4518,34 +4585,34 @@
         <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O23" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="P23" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.784</v>
       </c>
       <c r="R23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S23" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T23" t="n">
         <v>42.5</v>
       </c>
       <c r="U23" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
         <v>4.4</v>
@@ -4557,22 +4624,22 @@
         <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>25</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.405</v>
+        <v>0.415</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.442</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O24" t="n">
         <v>12.4</v>
       </c>
       <c r="P24" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R24" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
@@ -4739,34 +4806,34 @@
         <v>18.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,25 +4857,25 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>20</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
         <v>19</v>
@@ -5157,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>16</v>
@@ -5175,16 +5242,16 @@
         <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5303,10 +5370,10 @@
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -5482,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>10</v>
@@ -5509,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>24</v>
@@ -5539,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5682,7 +5749,7 @@
         <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
@@ -5700,7 +5767,7 @@
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5712,7 +5779,7 @@
         <v>10</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,10 +5919,10 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6049,10 +6116,10 @@
         <v>17</v>
       </c>
       <c r="AM31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6070,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
@@ -6088,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-22-2012-13</t>
+          <t>2013-01-22</t>
         </is>
       </c>
     </row>
